--- a/day1/Book6.xlsx
+++ b/day1/Book6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3b1bd01281e22f5/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d892e5c395d5ea2/Desktop/testing ex/day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{1629BC09-43AD-4D0D-B003-D1CA2ECF8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C741483-E347-4A27-81C4-6248202C65C9}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{1629BC09-43AD-4D0D-B003-D1CA2ECF8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC9EC529-713C-4FDA-AAC4-3120366A5734}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3DBCC42-B92D-4BDC-9D1E-0AD3715A7229}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3DBCC42-B92D-4BDC-9D1E-0AD3715A7229}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Test Executed By</t>
   </si>
   <si>
-    <t>Adhithya A</t>
-  </si>
-  <si>
     <t>Test Execution Date:</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>verify the admin dashboard</t>
+  </si>
+  <si>
+    <t>Sabarish T</t>
   </si>
 </sst>
 </file>
@@ -535,21 +535,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A732DDE-85C5-463A-BE42-7A2F4E4AD216}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -577,7 +577,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -588,176 +588,176 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="127.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="127.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="127.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="144.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
